--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-05-using-the-networkdays-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-05-using-the-networkdays-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A2C560E1-870A-4584-AC99-F168ADA28E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A342C126-36A5-41F1-8A7C-2EB16B6BB615}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0CA32-D383-4533-AC21-A0CD146891E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{198C9644-7785-416C-93C3-434773D2EE8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{198C9644-7785-416C-93C3-434773D2EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="NETWORKDAYS" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Task Name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Using the NETWORKDAYS and NETWORKDAYS.INT Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To General</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,16 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135ACAD8-B643-4ED5-81B9-667A7B79E8BC}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
@@ -928,8 +932,14 @@
       <c r="C18" s="8">
         <v>43924</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="11">
+        <f>NETWORKDAYS(B18,C18,$G$5:$G$14)</f>
+        <v>66</v>
+      </c>
+      <c r="E18" s="7">
+        <f>NETWORKDAYS.INTL(B18,C18,4,$G$5:$G$14)</f>
+        <v>66</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -944,8 +954,14 @@
       <c r="C19" s="8">
         <v>43844</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="11">
+        <f t="shared" ref="D19:D22" si="1">NETWORKDAYS(B19,C19,$G$5:$G$14)</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" ref="E19:E23" si="2">NETWORKDAYS.INTL(B19,C19,4,$G$5:$G$14)</f>
+        <v>5</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -960,8 +976,14 @@
       <c r="C20" s="8">
         <v>43843</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -976,8 +998,14 @@
       <c r="C21" s="8">
         <v>43845</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -992,11 +1020,26 @@
       <c r="C22" s="8">
         <v>43858</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
